--- a/TestData/TMTI0045474_VerifytheAmountiscalculatedandreflectedforNewEngagement.xlsx
+++ b/TestData/TMTI0045474_VerifytheAmountiscalculatedandreflectedforNewEngagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776C0AE-9B31-41CF-9304-2F3B9253B067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD804D-75ED-4F39-A8F6-3F0551C7D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>Rate Sheet</t>
   </si>
   <si>
-    <t>Schedule A</t>
-  </si>
-  <si>
     <t>WeeklyEntryMatrix</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Danielle Morello</t>
+  </si>
+  <si>
+    <t>DRC - Original</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -1432,7 +1432,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>75</v>
@@ -1483,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -1506,7 +1506,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>78</v>
@@ -1563,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A37C7-B197-48DE-AF74-F7E3BF51C998}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,8 +1578,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>83</v>
+      <c r="A2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF7D45-F703-49FA-99B7-1FA42A3E3923}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -1603,10 +1603,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
